--- a/docs/deliverable2/Getana_Deliverable_2_DailyScrumReport.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_DailyScrumReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20EE0B-8F63-264C-9DE6-A85C76A8B56B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CCA66-96B4-DC49-BB82-DDB54274C517}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="104">
   <si>
     <t>Daily Scrum Report — Sprint 1</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Daily Scrum Report — Sprint 2</t>
   </si>
   <si>
-    <t>xx Feb 18</t>
-  </si>
-  <si>
     <t>Daily Scrum Report — Sprint 3</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>What impediments prevent them from progressing:  Busy schedule/other classwork, Unfamiliarity with platforms/APIs</t>
   </si>
   <si>
-    <t>What they have done: Began work on implementing Maps API code calls.</t>
-  </si>
-  <si>
     <t>What impediments prevent them from progressing: Difficulty with implementation</t>
   </si>
   <si>
@@ -335,10 +329,16 @@
     <t>What they will do:Create domain model &amp; detailed design document. Complete first app release implementation.</t>
   </si>
   <si>
-    <t>What they will do: Complete implementation tasks, Create configuration management plan document</t>
-  </si>
-  <si>
     <t>What they will do: Complete sprint 2 review , team member report, &amp; focus group document. Update sprint/product backlog at end of sprint. Complete first app release implementation. Create GRL &amp; UCM models document.</t>
+  </si>
+  <si>
+    <t>What they will do: Begin implementation tasks (Maps API code calls) assigned last Scrum meeting, Create configuration management plan document</t>
+  </si>
+  <si>
+    <t>What they have done: Attended meeting, planned presentation</t>
+  </si>
+  <si>
+    <t>What they will do: Implement driver code to utilize google maps API to generate route from provided schedule detail</t>
   </si>
 </sst>
 </file>
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1551,17 +1551,17 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1569,17 +1569,17 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
@@ -1587,17 +1587,17 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
@@ -1605,17 +1605,17 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
@@ -1623,17 +1623,17 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
@@ -1641,17 +1641,17 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
@@ -1681,17 +1681,17 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -1699,17 +1699,17 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -1717,17 +1717,17 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -1735,17 +1735,17 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
@@ -1753,17 +1753,17 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
@@ -1771,17 +1771,17 @@
         <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
@@ -1811,17 +1811,17 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
@@ -1829,17 +1829,17 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.15">
@@ -1847,17 +1847,17 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.15">
@@ -1865,17 +1865,17 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.15">
@@ -1883,17 +1883,17 @@
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.15">
@@ -1901,17 +1901,17 @@
         <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
@@ -1942,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1955,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1965,7 +1965,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1986,17 +1986,17 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2004,17 +2004,17 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -2022,17 +2022,17 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2040,17 +2040,17 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -2058,17 +2058,17 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -2076,17 +2076,17 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
@@ -2107,8 +2107,8 @@
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>53</v>
+      <c r="B32" s="4">
+        <v>43167</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
@@ -2220,280 +2220,20 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C89" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C101" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A106" s="3" t="s">
+      <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/docs/deliverable2/Getana_Deliverable_2_DailyScrumReport.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_DailyScrumReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CCA66-96B4-DC49-BB82-DDB54274C517}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22791607-E962-9545-B8C3-D384ACDD49BD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="114">
   <si>
     <t>Daily Scrum Report — Sprint 1</t>
   </si>
@@ -311,12 +311,6 @@
     <t>What they have done: Completed work for saving/loading schedules</t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: Began working on map interface imlementation </t>
-  </si>
-  <si>
-    <t>What they will do: Update platform &amp; SRS/Use case model document. Create GRL &amp; UCM models document. Complete first app release implementation.</t>
-  </si>
-  <si>
     <t>What they will do:  Create GRL &amp; UCM models document. Complete first app release implementation.</t>
   </si>
   <si>
@@ -332,13 +326,49 @@
     <t>What they will do: Complete sprint 2 review , team member report, &amp; focus group document. Update sprint/product backlog at end of sprint. Complete first app release implementation. Create GRL &amp; UCM models document.</t>
   </si>
   <si>
-    <t>What they will do: Begin implementation tasks (Maps API code calls) assigned last Scrum meeting, Create configuration management plan document</t>
-  </si>
-  <si>
     <t>What they have done: Attended meeting, planned presentation</t>
   </si>
   <si>
     <t>What they will do: Implement driver code to utilize google maps API to generate route from provided schedule detail</t>
+  </si>
+  <si>
+    <t>What they have done: No work completed</t>
+  </si>
+  <si>
+    <t>What will they do: Not present for scrum meeting.</t>
+  </si>
+  <si>
+    <t>What impediments prevent them from progressing: Not present for scrum meeting.</t>
+  </si>
+  <si>
+    <t>What they have done: No work completed.</t>
+  </si>
+  <si>
+    <t>What they will do: Begin implementation tasks (Maps API code calls) assigned previously, Create configuration management plan document</t>
+  </si>
+  <si>
+    <t>What they will do: Enjoy spring break</t>
+  </si>
+  <si>
+    <t>What they have done: Completed first few user interface implementations</t>
+  </si>
+  <si>
+    <t>What they have done: Completed detailed design and domain model document, completed first few user interface implementations.</t>
+  </si>
+  <si>
+    <t>What they have done: Miscellaneous documentation tasks</t>
+  </si>
+  <si>
+    <t>What they have done: Completed first few user interface implementations, Miscellaneous implementation fixes, Implemented story number 4</t>
+  </si>
+  <si>
+    <t>What they will do: Update platform &amp; SRS/Use case model document. Created GRL &amp; UCM models document. Complete first app release implementation.</t>
+  </si>
+  <si>
+    <t>What they have done: Began working on map interface imlementation.</t>
+  </si>
+  <si>
+    <t>What they have done: Worked on GRL and UCM model document. Implemented showing route between start and destination points.</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -1681,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -1816,7 +1846,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
@@ -1944,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="137" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1986,12 +2016,12 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2009,7 +2039,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -2027,7 +2057,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -2045,12 +2075,12 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -2063,12 +2093,12 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -2076,12 +2106,12 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
@@ -2116,17 +2146,17 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
@@ -2134,17 +2164,17 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
@@ -2152,17 +2182,17 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
@@ -2170,17 +2200,17 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
@@ -2188,17 +2218,17 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
@@ -2206,17 +2236,17 @@
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">

--- a/docs/deliverable2/Getana_Deliverable_2_DailyScrumReport.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_DailyScrumReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22791607-E962-9545-B8C3-D384ACDD49BD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73CD6A-C98D-434B-A174-370B9DFE8A97}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,12 +356,6 @@
     <t>What they have done: Completed detailed design and domain model document, completed first few user interface implementations.</t>
   </si>
   <si>
-    <t>What they have done: Miscellaneous documentation tasks</t>
-  </si>
-  <si>
-    <t>What they have done: Completed first few user interface implementations, Miscellaneous implementation fixes, Implemented story number 4</t>
-  </si>
-  <si>
     <t>What they will do: Update platform &amp; SRS/Use case model document. Created GRL &amp; UCM models document. Complete first app release implementation.</t>
   </si>
   <si>
@@ -369,6 +363,12 @@
   </si>
   <si>
     <t>What they have done: Worked on GRL and UCM model document. Implemented showing route between start and destination points.</t>
+  </si>
+  <si>
+    <t>What they have done: Miscellaneous documentation tasks, Updated SRS and UML document</t>
+  </si>
+  <si>
+    <t>What they have done: Completed first few user interface implementations, Miscellaneous implementation fixes, Implemented story number 4, Updated SRS and UML document, Worked on GRL and UCM model document.</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -1974,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="137" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="137" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -2106,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -2164,7 +2164,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
@@ -2218,7 +2218,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
@@ -2236,7 +2236,7 @@
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">

--- a/docs/deliverable2/Getana_Deliverable_2_DailyScrumReport.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_DailyScrumReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73CD6A-C98D-434B-A174-370B9DFE8A97}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8167419-B0C8-7F4A-B36A-B665BA66B31F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>What they will do: Update product backlog,Complete first app release implementation. Create domain model &amp; detailed design document.</t>
   </si>
   <si>
-    <t>What they will do:Create domain model &amp; detailed design document. Complete first app release implementation.</t>
-  </si>
-  <si>
     <t>What they will do: Complete sprint 2 review , team member report, &amp; focus group document. Update sprint/product backlog at end of sprint. Complete first app release implementation. Create GRL &amp; UCM models document.</t>
   </si>
   <si>
@@ -359,16 +356,19 @@
     <t>What they will do: Update platform &amp; SRS/Use case model document. Created GRL &amp; UCM models document. Complete first app release implementation.</t>
   </si>
   <si>
-    <t>What they have done: Began working on map interface imlementation.</t>
-  </si>
-  <si>
     <t>What they have done: Worked on GRL and UCM model document. Implemented showing route between start and destination points.</t>
   </si>
   <si>
-    <t>What they have done: Miscellaneous documentation tasks, Updated SRS and UML document</t>
-  </si>
-  <si>
-    <t>What they have done: Completed first few user interface implementations, Miscellaneous implementation fixes, Implemented story number 4, Updated SRS and UML document, Worked on GRL and UCM model document.</t>
+    <t>What they will do: Create domain model &amp; detailed design document. Complete first app release implementation.</t>
+  </si>
+  <si>
+    <t>What they have done: Began working on map interface implementation.</t>
+  </si>
+  <si>
+    <t>What they have done: Miscellaneous documentation tasks, Updated SRS and UML document, Created configuration management plan document.</t>
+  </si>
+  <si>
+    <t>What they have done: Completed first few user interface implementations, Miscellaneous implementation fixes, Implemented story number 4, Updated SRS and UML document, Worked on GRL and UCM model document. Created configuration management plan.</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -1846,7 +1846,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
@@ -1974,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="137" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2016,12 +2016,12 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2039,7 +2039,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -2057,7 +2057,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -2093,7 +2093,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -2106,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -2146,17 +2146,17 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
@@ -2169,7 +2169,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
@@ -2182,12 +2182,12 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
@@ -2200,12 +2200,12 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
@@ -2223,7 +2223,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
@@ -2236,12 +2236,12 @@
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
